--- a/cryptocurrency/Binance Futures Note.xlsx
+++ b/cryptocurrency/Binance Futures Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Khi mở hoặc đóng 1 lệnh (vị thế) thì mất 1 khoảng phí https://www.binance.com/vn/fee/schedule</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t xml:space="preserve">Đòn bẩy càng cao thì số tiền bỏ ra càng ít, nhưng tỉ lệ thắng/thua cũng cao theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải thích lệnh trailing stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A = Giá cần vào lệnh (Giá limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B = Xác định % rate chốt lời (ví dụ 1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xác định giá kích hoạt trailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = A + (A * C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A = 10400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B = 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = 10400 + (10400 * 1%)</t>
   </si>
   <si>
     <t xml:space="preserve">Đánh lướt sóng thì chỉ nên giới hạn trong 1 khung nến nhất định, canh nến nhỏ rồi chốt lời lỗ nhanh gọn, kiếm lợi nhuận nhỏ</t>
@@ -155,15 +182,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>249840</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3596760" y="2811240"/>
+          <a:ext cx="7981920" cy="4775040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:C14"/>
+  <dimension ref="B3:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,6 +288,51 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -232,6 +346,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -242,30 +357,33 @@
   </sheetPr>
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.45"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
